--- a/Data/Compensation_and_Participation_Signal.xlsx
+++ b/Data/Compensation_and_Participation_Signal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1F589D119105B57D/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{D8A1D0BA-7AF4-4EF5-A400-5837381A4702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0446900C-83C5-4DE3-BDA4-9A461611A303}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D8A1D0BA-7AF4-4EF5-A400-5837381A4702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B0BDA7-01FE-45CA-80CB-90C862458398}"/>
   <bookViews>
-    <workbookView xWindow="5390" yWindow="5990" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="8050" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>observation_date</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Average_Weekly_Earnings</t>
+  </si>
+  <si>
+    <t>Average_Weekly_Hours</t>
+  </si>
+  <si>
+    <t>Median_Hourly_Wage_Growth_3MMA</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,11 +101,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -109,6 +126,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,11 +452,12 @@
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" style="6" customWidth="1"/>
     <col min="5" max="5" width="45.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -448,8 +473,14 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>36861</v>
       </c>
@@ -465,8 +496,11 @@
       <c r="E2" s="3">
         <v>-0.11905</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>36892</v>
       </c>
@@ -482,8 +516,11 @@
       <c r="E3" s="3">
         <v>-0.35544999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" s="9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>36923</v>
       </c>
@@ -499,8 +536,11 @@
       <c r="E4" s="3">
         <v>-0.35544999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>36951</v>
       </c>
@@ -516,8 +556,11 @@
       <c r="E5" s="3">
         <v>-0.23724999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>36982</v>
       </c>
@@ -533,8 +576,11 @@
       <c r="E6" s="3">
         <v>-0.82938000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>37012</v>
       </c>
@@ -550,8 +596,11 @@
       <c r="E7" s="3">
         <v>-0.35671999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G7" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>37043</v>
       </c>
@@ -567,8 +616,11 @@
       <c r="E8" s="3">
         <v>-0.59453</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G8" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>37073</v>
       </c>
@@ -584,8 +636,11 @@
       <c r="E9" s="3">
         <v>-0.35757</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G9" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>37104</v>
       </c>
@@ -601,8 +656,11 @@
       <c r="E10" s="3">
         <v>-0.35799999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G10" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>37135</v>
       </c>
@@ -618,8 +676,11 @@
       <c r="E11" s="3">
         <v>-0.23895</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>37165</v>
       </c>
@@ -635,8 +696,11 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>37196</v>
       </c>
@@ -652,8 +716,11 @@
       <c r="E13" s="3">
         <v>-0.35799999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>37226</v>
       </c>
@@ -669,8 +736,11 @@
       <c r="E14" s="3">
         <v>-0.23838000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>37257</v>
       </c>
@@ -686,8 +756,11 @@
       <c r="E15" s="3">
         <v>-0.71343999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G15" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>37288</v>
       </c>
@@ -703,8 +776,11 @@
       <c r="E16" s="3">
         <v>-0.47561999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G16" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>37316</v>
       </c>
@@ -720,8 +796,11 @@
       <c r="E17" s="3">
         <v>-0.71343999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G17" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>37347</v>
       </c>
@@ -737,8 +816,11 @@
       <c r="E18" s="3">
         <v>-0.11947000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G18" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>37377</v>
       </c>
@@ -754,8 +836,11 @@
       <c r="E19" s="3">
         <v>-0.23866000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G19" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>37408</v>
       </c>
@@ -771,8 +856,11 @@
       <c r="E20" s="3">
         <v>-0.47847000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G20" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>37438</v>
       </c>
@@ -788,8 +876,11 @@
       <c r="E21" s="3">
         <v>-0.59809000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G21" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>37469</v>
       </c>
@@ -805,8 +896,11 @@
       <c r="E22" s="3">
         <v>-0.35927999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G22" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>37500</v>
       </c>
@@ -822,8 +916,11 @@
       <c r="E23" s="3">
         <v>-0.23952000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G23" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>37530</v>
       </c>
@@ -839,8 +936,11 @@
       <c r="E24" s="3">
         <v>-0.47847000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G24" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>37561</v>
       </c>
@@ -856,8 +956,11 @@
       <c r="E25" s="3">
         <v>-0.71855999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G25" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>37591</v>
       </c>
@@ -873,8 +976,11 @@
       <c r="E26" s="3">
         <v>-0.71684999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G26" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>37622</v>
       </c>
@@ -890,8 +996,11 @@
       <c r="E27" s="3">
         <v>-0.71855999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G27" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>37653</v>
       </c>
@@ -907,8 +1016,11 @@
       <c r="E28" s="3">
         <v>-0.83631999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G28" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>37681</v>
       </c>
@@ -924,8 +1036,11 @@
       <c r="E29" s="3">
         <v>-0.47904000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G29" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>37712</v>
       </c>
@@ -941,8 +1056,11 @@
       <c r="E30" s="3">
         <v>-0.47847000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G30" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>37742</v>
       </c>
@@ -958,8 +1076,11 @@
       <c r="E31" s="3">
         <v>-0.59809000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G31" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>37773</v>
       </c>
@@ -975,8 +1096,11 @@
       <c r="E32" s="3">
         <v>0.12019000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G32" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>37803</v>
       </c>
@@ -992,8 +1116,11 @@
       <c r="E33" s="3">
         <v>-0.12034</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G33" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>37834</v>
       </c>
@@ -1009,8 +1136,11 @@
       <c r="E34" s="3">
         <v>-0.24038000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G34" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>37865</v>
       </c>
@@ -1026,8 +1156,11 @@
       <c r="E35" s="3">
         <v>-0.60024</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G35" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>37895</v>
       </c>
@@ -1043,8 +1176,11 @@
       <c r="E36" s="3">
         <v>-0.36058000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G36" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>37926</v>
       </c>
@@ -1060,8 +1196,11 @@
       <c r="E37" s="3">
         <v>-0.12063</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G37" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37956</v>
       </c>
@@ -1077,8 +1216,11 @@
       <c r="E38" s="3">
         <v>-0.36101</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G38" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>37987</v>
       </c>
@@ -1094,8 +1236,11 @@
       <c r="E39" s="3">
         <v>-0.12063</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G39" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>38018</v>
       </c>
@@ -1111,8 +1256,11 @@
       <c r="E40" s="3">
         <v>-0.36144999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G40" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>38047</v>
       </c>
@@ -1128,8 +1276,11 @@
       <c r="E41" s="3">
         <v>-0.36101</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G41" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>38078</v>
       </c>
@@ -1145,8 +1296,11 @@
       <c r="E42" s="3">
         <v>-0.60096000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G42" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>38108</v>
       </c>
@@ -1162,8 +1316,11 @@
       <c r="E43" s="3">
         <v>-0.36101</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G43" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>38139</v>
       </c>
@@ -1179,8 +1336,11 @@
       <c r="E44" s="3">
         <v>-0.48019000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G44" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>38169</v>
       </c>
@@ -1196,8 +1356,11 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G45" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>38200</v>
       </c>
@@ -1213,8 +1376,11 @@
       <c r="E46" s="3">
         <v>-0.36144999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G46" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>38231</v>
       </c>
@@ -1230,8 +1396,11 @@
       <c r="E47" s="3">
         <v>-0.12077</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G47" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>38261</v>
       </c>
@@ -1247,8 +1416,11 @@
       <c r="E48" s="3">
         <v>-0.36187999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G48" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>38292</v>
       </c>
@@ -1264,8 +1436,11 @@
       <c r="E49" s="3">
         <v>-0.12077</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G49" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>38322</v>
       </c>
@@ -1281,8 +1456,11 @@
       <c r="E50" s="3">
         <v>-0.24154999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G50" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>38353</v>
       </c>
@@ -1298,8 +1476,11 @@
       <c r="E51" s="3">
         <v>-0.12077</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G51" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>38384</v>
       </c>
@@ -1315,8 +1496,11 @@
       <c r="E52" s="3">
         <v>0.12092</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G52" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>38412</v>
       </c>
@@ -1332,8 +1516,11 @@
       <c r="E53" s="3">
         <v>-0.24154999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G53" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>38443</v>
       </c>
@@ -1349,8 +1536,11 @@
       <c r="E54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G54" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>38473</v>
       </c>
@@ -1366,8 +1556,11 @@
       <c r="E55" s="3">
         <v>0.12077</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G55" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>38504</v>
       </c>
@@ -1383,8 +1576,11 @@
       <c r="E56" s="3">
         <v>-0.36187999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G56" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>38534</v>
       </c>
@@ -1400,8 +1596,11 @@
       <c r="E57" s="3">
         <v>-0.24096000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G57" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>38565</v>
       </c>
@@ -1417,8 +1616,11 @@
       <c r="E58" s="3">
         <v>0.24184</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G58" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>38596</v>
       </c>
@@ -1434,8 +1636,11 @@
       <c r="E59" s="3">
         <v>0.24184</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G59" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>38626</v>
       </c>
@@ -1451,8 +1656,11 @@
       <c r="E60" s="3">
         <v>0.12107</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G60" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>38657</v>
       </c>
@@ -1468,8 +1676,11 @@
       <c r="E61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G61" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>38687</v>
       </c>
@@ -1485,8 +1696,11 @@
       <c r="E62" s="3">
         <v>0.12107</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G62" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>38718</v>
       </c>
@@ -1502,8 +1716,11 @@
       <c r="E63" s="3">
         <v>0.12092</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G63" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>38749</v>
       </c>
@@ -1519,8 +1736,11 @@
       <c r="E64" s="3">
         <v>0.12077</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G64" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>38777</v>
       </c>
@@ -1536,8 +1756,14 @@
       <c r="E65" s="3">
         <v>0.48426000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G65" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>38808</v>
       </c>
@@ -1553,8 +1779,14 @@
       <c r="E66" s="3">
         <v>0.12092</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G66" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>38838</v>
       </c>
@@ -1570,8 +1802,14 @@
       <c r="E67" s="3">
         <v>-0.12063</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G67" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>38869</v>
       </c>
@@ -1587,8 +1825,14 @@
       <c r="E68" s="3">
         <v>0.24213000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G68" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>38899</v>
       </c>
@@ -1604,8 +1848,14 @@
       <c r="E69" s="3">
         <v>0.24154999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G69" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>38930</v>
       </c>
@@ -1621,8 +1871,14 @@
       <c r="E70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G70" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>38961</v>
       </c>
@@ -1638,8 +1894,14 @@
       <c r="E71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G71" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>38991</v>
       </c>
@@ -1655,8 +1917,14 @@
       <c r="E72" s="3">
         <v>0.24184</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G72" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>39022</v>
       </c>
@@ -1672,8 +1940,14 @@
       <c r="E73" s="3">
         <v>0.36276000000000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G73" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>39052</v>
       </c>
@@ -1689,8 +1963,14 @@
       <c r="E74" s="3">
         <v>0.48368</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G74" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>39083</v>
       </c>
@@ -1706,8 +1986,14 @@
       <c r="E75" s="3">
         <v>0.72463999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G75" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>39114</v>
       </c>
@@ -1723,8 +2009,14 @@
       <c r="E76" s="3">
         <v>0.36187999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G76" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>39142</v>
       </c>
@@ -1740,8 +2032,14 @@
       <c r="E77" s="3">
         <v>0.24096000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G77" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>39173</v>
       </c>
@@ -1757,8 +2055,14 @@
       <c r="E78" s="3">
         <v>0.24154999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G78" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>39203</v>
       </c>
@@ -1774,8 +2078,14 @@
       <c r="E79" s="3">
         <v>0.24154999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G79" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>39234</v>
       </c>
@@ -1791,8 +2101,14 @@
       <c r="E80" s="3">
         <v>0.12077</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G80" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>39264</v>
       </c>
@@ -1808,8 +2124,14 @@
       <c r="E81" s="3">
         <v>-0.12048</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G81" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>39295</v>
       </c>
@@ -1825,8 +2147,14 @@
       <c r="E82" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G82" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>39326</v>
       </c>
@@ -1842,8 +2170,14 @@
       <c r="E83" s="3">
         <v>-0.12063</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G83" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>39356</v>
       </c>
@@ -1859,8 +2193,14 @@
       <c r="E84" s="3">
         <v>-0.24124999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G84" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>39387</v>
       </c>
@@ -1876,8 +2216,14 @@
       <c r="E85" s="3">
         <v>-0.12048</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G85" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>39417</v>
       </c>
@@ -1893,8 +2239,14 @@
       <c r="E86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G86" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>39448</v>
       </c>
@@ -1910,8 +2262,14 @@
       <c r="E87" s="3">
         <v>-0.11990000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G87" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>39479</v>
       </c>
@@ -1927,8 +2285,14 @@
       <c r="E88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G88" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>39508</v>
       </c>
@@ -1944,8 +2308,14 @@
       <c r="E89" s="3">
         <v>0.12019000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G89" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>39539</v>
       </c>
@@ -1961,8 +2331,14 @@
       <c r="E90" s="3">
         <v>0.12048</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G90" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>39569</v>
       </c>
@@ -1978,8 +2354,14 @@
       <c r="E91" s="3">
         <v>0.12048</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G91" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>39600</v>
       </c>
@@ -1995,8 +2377,14 @@
       <c r="E92" s="3">
         <v>0.24124999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G92" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>39630</v>
       </c>
@@ -2012,8 +2400,14 @@
       <c r="E93" s="3">
         <v>0.24124999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G93" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>39661</v>
       </c>
@@ -2029,8 +2423,14 @@
       <c r="E94" s="3">
         <v>0.36187999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G94" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>39692</v>
       </c>
@@ -2046,8 +2446,14 @@
       <c r="E95" s="3">
         <v>0.36231999999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G95" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>39722</v>
       </c>
@@ -2063,8 +2469,14 @@
       <c r="E96" s="3">
         <v>0.36276000000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G96" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>39753</v>
       </c>
@@ -2080,8 +2492,14 @@
       <c r="E97" s="3">
         <v>0.12063</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>39783</v>
       </c>
@@ -2097,8 +2515,14 @@
       <c r="E98" s="3">
         <v>-0.36101</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="G98" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>39814</v>
       </c>
@@ -2114,8 +2538,14 @@
       <c r="E99" s="3">
         <v>-0.60024</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99" s="2">
+        <v>34</v>
+      </c>
+      <c r="G99" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>39845</v>
       </c>
@@ -2131,8 +2561,14 @@
       <c r="E100" s="3">
         <v>-0.48076999999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100" s="2">
+        <v>34</v>
+      </c>
+      <c r="G100" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>39873</v>
       </c>
@@ -2148,8 +2584,14 @@
       <c r="E101" s="3">
         <v>-0.84033999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G101" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>39904</v>
       </c>
@@ -2165,8 +2607,14 @@
       <c r="E102" s="3">
         <v>-0.36101</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G102" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>39934</v>
       </c>
@@ -2182,8 +2630,14 @@
       <c r="E103" s="3">
         <v>-0.24067</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G103" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>39965</v>
       </c>
@@ -2199,8 +2653,14 @@
       <c r="E104" s="3">
         <v>-0.24067</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G104" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>39995</v>
       </c>
@@ -2216,8 +2676,14 @@
       <c r="E105" s="3">
         <v>-0.36101</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G105" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>40026</v>
       </c>
@@ -2233,8 +2699,14 @@
       <c r="E106" s="3">
         <v>-0.48076999999999998</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G106" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>40057</v>
       </c>
@@ -2250,8 +2722,14 @@
       <c r="E107" s="3">
         <v>-0.72202</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="G107" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>40087</v>
       </c>
@@ -2267,8 +2745,14 @@
       <c r="E108" s="3">
         <v>-0.60241</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G108" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>40118</v>
       </c>
@@ -2284,8 +2768,14 @@
       <c r="E109" s="3">
         <v>-0.72289000000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="G109" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>40148</v>
       </c>
@@ -2301,8 +2791,14 @@
       <c r="E110" s="3">
         <v>-0.96618000000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>40179</v>
       </c>
@@ -2318,8 +2814,14 @@
       <c r="E111" s="3">
         <v>-0.48309000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111" s="2">
+        <v>34</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>40210</v>
       </c>
@@ -2335,8 +2837,14 @@
       <c r="E112" s="3">
         <v>-0.60385999999999995</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>40238</v>
       </c>
@@ -2352,8 +2860,14 @@
       <c r="E113" s="3">
         <v>-0.24213000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113" s="2">
+        <v>34</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>40269</v>
       </c>
@@ -2369,8 +2883,14 @@
       <c r="E114" s="3">
         <v>-0.24154999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>40299</v>
       </c>
@@ -2386,8 +2906,14 @@
       <c r="E115" s="3">
         <v>-0.72375999999999996</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>40330</v>
       </c>
@@ -2403,8 +2929,14 @@
       <c r="E116" s="3">
         <v>-0.84438999999999997</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>40360</v>
       </c>
@@ -2420,8 +2952,14 @@
       <c r="E117" s="3">
         <v>-1.0869599999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>40391</v>
       </c>
@@ -2437,8 +2975,14 @@
       <c r="E118" s="3">
         <v>-0.96618000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G118" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>40422</v>
       </c>
@@ -2454,8 +2998,14 @@
       <c r="E119" s="3">
         <v>-0.60606000000000004</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>40452</v>
       </c>
@@ -2471,8 +3021,14 @@
       <c r="E120" s="3">
         <v>-0.84848000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>40483</v>
       </c>
@@ -2488,8 +3044,14 @@
       <c r="E121" s="3">
         <v>-0.48543999999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>40513</v>
       </c>
@@ -2505,8 +3067,14 @@
       <c r="E122" s="3">
         <v>-0.12195</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>40544</v>
       </c>
@@ -2522,8 +3090,14 @@
       <c r="E123" s="3">
         <v>-0.84950999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>40575</v>
       </c>
@@ -2539,8 +3113,14 @@
       <c r="E124" s="3">
         <v>-0.85055000000000003</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>40603</v>
       </c>
@@ -2556,8 +3136,14 @@
       <c r="E125" s="3">
         <v>-0.84950999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>40634</v>
       </c>
@@ -2573,8 +3159,14 @@
       <c r="E126" s="3">
         <v>-1.0895900000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>40664</v>
       </c>
@@ -2590,8 +3182,14 @@
       <c r="E127" s="3">
         <v>-0.72904000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G127" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>40695</v>
       </c>
@@ -2607,8 +3205,14 @@
       <c r="E128" s="3">
         <v>-0.60826999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G128" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>40725</v>
       </c>
@@ -2624,8 +3228,14 @@
       <c r="E129" s="3">
         <v>-0.61050000000000004</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G129" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>40756</v>
       </c>
@@ -2641,8 +3251,14 @@
       <c r="E130" s="3">
         <v>-0.48780000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G130" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>40787</v>
       </c>
@@ -2658,8 +3274,14 @@
       <c r="E131" s="3">
         <v>-0.60975999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G131" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>40817</v>
       </c>
@@ -2675,8 +3297,14 @@
       <c r="E132" s="3">
         <v>-0.61124999999999996</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G132" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>40848</v>
       </c>
@@ -2692,8 +3320,14 @@
       <c r="E133" s="3">
         <v>-0.60975999999999997</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G133" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>40878</v>
       </c>
@@ -2709,8 +3343,14 @@
       <c r="E134" s="3">
         <v>-0.36630000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G134" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>40909</v>
       </c>
@@ -2726,8 +3366,14 @@
       <c r="E135" s="3">
         <v>-0.24479999999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>40940</v>
       </c>
@@ -2743,8 +3389,14 @@
       <c r="E136" s="3">
         <v>-0.12255000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>40969</v>
       </c>
@@ -2760,8 +3412,14 @@
       <c r="E137" s="3">
         <v>-0.24479999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G137" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>41000</v>
       </c>
@@ -2777,8 +3435,14 @@
       <c r="E138" s="3">
         <v>-0.36720000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G138" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>41030</v>
       </c>
@@ -2794,8 +3458,14 @@
       <c r="E139" s="3">
         <v>-0.36720000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G139" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>41061</v>
       </c>
@@ -2811,8 +3481,14 @@
       <c r="E140" s="3">
         <v>-0.24479999999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G140" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>41091</v>
       </c>
@@ -2828,8 +3504,14 @@
       <c r="E141" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G141" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>41122</v>
       </c>
@@ -2845,8 +3527,14 @@
       <c r="E142" s="3">
         <v>-0.24510000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G142" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>41153</v>
       </c>
@@ -2862,8 +3550,14 @@
       <c r="E143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G143" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>41183</v>
       </c>
@@ -2879,8 +3573,14 @@
       <c r="E144" s="3">
         <v>0.36899999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G144" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>41214</v>
       </c>
@@ -2896,8 +3596,14 @@
       <c r="E145" s="3">
         <v>-0.36809999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G145" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>41244</v>
       </c>
@@ -2913,8 +3619,14 @@
       <c r="E146" s="3">
         <v>-0.24510000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G146" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>41275</v>
       </c>
@@ -2930,8 +3642,14 @@
       <c r="E147" s="3">
         <v>-0.49080000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G147" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>41306</v>
       </c>
@@ -2947,8 +3665,14 @@
       <c r="E148" s="3">
         <v>-0.61350000000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G148" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>41334</v>
       </c>
@@ -2964,8 +3688,14 @@
       <c r="E149" s="3">
         <v>-0.61350000000000005</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G149" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>41365</v>
       </c>
@@ -2981,8 +3711,14 @@
       <c r="E150" s="3">
         <v>-0.4914</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G150" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>41395</v>
       </c>
@@ -2998,8 +3734,14 @@
       <c r="E151" s="3">
         <v>-0.2457</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G151" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>41426</v>
       </c>
@@ -3015,8 +3757,14 @@
       <c r="E152" s="3">
         <v>-0.36809999999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G152" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>41456</v>
       </c>
@@ -3032,8 +3780,14 @@
       <c r="E153" s="3">
         <v>-0.2457</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G153" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>41487</v>
       </c>
@@ -3049,8 +3803,14 @@
       <c r="E154" s="3">
         <v>-0.4914</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G154" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>41518</v>
       </c>
@@ -3066,8 +3826,14 @@
       <c r="E155" s="3">
         <v>-0.61350000000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F155" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G155" s="9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>41548</v>
       </c>
@@ -3083,8 +3849,14 @@
       <c r="E156" s="3">
         <v>-1.22549</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F156" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G156" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>41579</v>
       </c>
@@ -3100,8 +3872,14 @@
       <c r="E157" s="3">
         <v>-0.24631</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F157" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G157" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>41609</v>
       </c>
@@ -3117,8 +3895,14 @@
       <c r="E158" s="3">
         <v>-0.73709999999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F158" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G158" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>41640</v>
       </c>
@@ -3134,8 +3918,14 @@
       <c r="E159" s="3">
         <v>-0.24661</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F159" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G159" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>41671</v>
       </c>
@@ -3151,8 +3941,14 @@
       <c r="E160" s="3">
         <v>0.12346</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F160" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G160" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>41699</v>
       </c>
@@ -3168,8 +3964,14 @@
       <c r="E161" s="3">
         <v>0.12346</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F161" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G161" s="9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>41730</v>
       </c>
@@ -3185,8 +3987,14 @@
       <c r="E162" s="3">
         <v>-0.24690999999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G162" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>41760</v>
       </c>
@@ -3202,8 +4010,14 @@
       <c r="E163" s="3">
         <v>-0.61575999999999997</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F163" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G163" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>41791</v>
       </c>
@@ -3219,8 +4033,14 @@
       <c r="E164" s="3">
         <v>-0.24631</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F164" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G164" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>41821</v>
       </c>
@@ -3236,8 +4056,14 @@
       <c r="E165" s="3">
         <v>-0.49260999999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F165" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G165" s="9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>41852</v>
       </c>
@@ -3253,8 +4079,14 @@
       <c r="E166" s="3">
         <v>0.12346</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F166" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G166" s="9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>41883</v>
       </c>
@@ -3270,8 +4102,14 @@
       <c r="E167" s="3">
         <v>-0.24690999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F167" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G167" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>41913</v>
       </c>
@@ -3287,8 +4125,14 @@
       <c r="E168" s="3">
         <v>0.37220999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F168" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G168" s="9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>41944</v>
       </c>
@@ -3304,8 +4148,14 @@
       <c r="E169" s="3">
         <v>-0.12346</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F169" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G169" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>41974</v>
       </c>
@@ -3321,8 +4171,14 @@
       <c r="E170" s="3">
         <v>0.12376</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F170" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G170" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>42005</v>
       </c>
@@ -3338,8 +4194,14 @@
       <c r="E171" s="3">
         <v>0.12361</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F171" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G171" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>42036</v>
       </c>
@@ -3355,8 +4217,14 @@
       <c r="E172" s="3">
         <v>-0.24661</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F172" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G172" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>42064</v>
       </c>
@@ -3372,8 +4240,14 @@
       <c r="E173" s="3">
         <v>-0.36991000000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F173" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G173" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>42095</v>
       </c>
@@ -3389,8 +4263,14 @@
       <c r="E174" s="3">
         <v>0.24751999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F174" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G174" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>42125</v>
       </c>
@@ -3406,8 +4286,14 @@
       <c r="E175" s="3">
         <v>0.49565999999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F175" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G175" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>42156</v>
       </c>
@@ -3423,8 +4309,14 @@
       <c r="E176" s="3">
         <v>-0.12346</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G176" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>42186</v>
       </c>
@@ -3440,8 +4332,14 @@
       <c r="E177" s="3">
         <v>-0.12376</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G177" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>42217</v>
       </c>
@@ -3457,8 +4355,14 @@
       <c r="E178" s="3">
         <v>-0.49321999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G178" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>42248</v>
       </c>
@@ -3474,8 +4378,14 @@
       <c r="E179" s="3">
         <v>-0.24751999999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G179" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>42278</v>
       </c>
@@ -3491,8 +4401,14 @@
       <c r="E180" s="3">
         <v>-0.12361</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G180" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>42309</v>
       </c>
@@ -3508,8 +4424,14 @@
       <c r="E181" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G181" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>42339</v>
       </c>
@@ -3525,8 +4447,14 @@
       <c r="E182" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G182" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>42370</v>
       </c>
@@ -3542,8 +4470,14 @@
       <c r="E183" s="3">
         <v>0.12346</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G183" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>42401</v>
       </c>
@@ -3559,8 +4493,14 @@
       <c r="E184" s="3">
         <v>0.24722</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G184" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>42430</v>
       </c>
@@ -3576,8 +4516,14 @@
       <c r="E185" s="3">
         <v>0.61880999999999997</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G185" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>42461</v>
       </c>
@@ -3593,8 +4539,14 @@
       <c r="E186" s="3">
         <v>0.24690999999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G186" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>42491</v>
       </c>
@@ -3610,8 +4562,14 @@
       <c r="E187" s="3">
         <v>0.12330000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G187" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>42522</v>
       </c>
@@ -3627,8 +4585,14 @@
       <c r="E188" s="3">
         <v>0.49443999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F188" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G188" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>42552</v>
       </c>
@@ -3644,8 +4608,14 @@
       <c r="E189" s="3">
         <v>0.74348999999999998</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G189" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>42583</v>
       </c>
@@ -3661,8 +4631,14 @@
       <c r="E190" s="3">
         <v>0.86741000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G190" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>42614</v>
       </c>
@@ -3678,8 +4654,14 @@
       <c r="E191" s="3">
         <v>1.11663</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G191" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>42644</v>
       </c>
@@ -3695,8 +4677,14 @@
       <c r="E192" s="3">
         <v>0.86634</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G192" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>42675</v>
       </c>
@@ -3712,8 +4700,14 @@
       <c r="E193" s="3">
         <v>0.61804999999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F193" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G193" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>42705</v>
       </c>
@@ -3729,8 +4723,14 @@
       <c r="E194" s="3">
         <v>0.49443999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G194" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>42736</v>
       </c>
@@ -3746,8 +4746,14 @@
       <c r="E195" s="3">
         <v>0.49321999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G195" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>42767</v>
       </c>
@@ -3763,8 +4769,14 @@
       <c r="E196" s="3">
         <v>0.61651999999999996</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G196" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>42795</v>
       </c>
@@ -3780,8 +4792,14 @@
       <c r="E197" s="3">
         <v>0.36899999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G197" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>42826</v>
       </c>
@@ -3797,8 +4815,14 @@
       <c r="E198" s="3">
         <v>0.61575999999999997</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F198" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G198" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>42856</v>
       </c>
@@ -3814,8 +4838,14 @@
       <c r="E199" s="3">
         <v>0.61575999999999997</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G199" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>42887</v>
       </c>
@@ -3831,8 +4861,14 @@
       <c r="E200" s="3">
         <v>0.36899999999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G200" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>42917</v>
       </c>
@@ -3848,8 +4884,14 @@
       <c r="E201" s="3">
         <v>0.61500999999999995</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G201" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>42948</v>
       </c>
@@ -3865,8 +4907,14 @@
       <c r="E202" s="3">
         <v>0.2457</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G202" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>42979</v>
       </c>
@@ -3882,8 +4930,14 @@
       <c r="E203" s="3">
         <v>0.49080000000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G203" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>43009</v>
       </c>
@@ -3899,8 +4953,14 @@
       <c r="E204" s="3">
         <v>0.1227</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G204" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>43040</v>
       </c>
@@ -3916,8 +4976,14 @@
       <c r="E205" s="3">
         <v>0.36854999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G205" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>43070</v>
       </c>
@@ -3933,8 +4999,14 @@
       <c r="E206" s="3">
         <v>0.61500999999999995</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G206" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>43101</v>
       </c>
@@ -3950,8 +5022,14 @@
       <c r="E207" s="3">
         <v>0.24540000000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G207" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>43132</v>
       </c>
@@ -3967,8 +5045,14 @@
       <c r="E208" s="3">
         <v>0.61275000000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G208" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>43160</v>
       </c>
@@ -3984,8 +5068,14 @@
       <c r="E209" s="3">
         <v>0.49020000000000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G209" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>43191</v>
       </c>
@@ -4001,8 +5091,14 @@
       <c r="E210" s="3">
         <v>0.36720000000000003</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G210" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>43221</v>
       </c>
@@ -4018,8 +5114,14 @@
       <c r="E211" s="3">
         <v>0.24479999999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G211" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>43252</v>
       </c>
@@ -4035,8 +5137,14 @@
       <c r="E212" s="3">
         <v>0.61275000000000002</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G212" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>43282</v>
       </c>
@@ -4052,8 +5160,14 @@
       <c r="E213" s="3">
         <v>0.36675000000000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G213" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>43313</v>
       </c>
@@ -4069,8 +5183,14 @@
       <c r="E214" s="3">
         <v>0.36764999999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G214" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>43344</v>
       </c>
@@ -4086,8 +5206,14 @@
       <c r="E215" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G215" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>43374</v>
       </c>
@@ -4103,8 +5229,14 @@
       <c r="E216" s="3">
         <v>0.85784000000000005</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G216" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>43405</v>
       </c>
@@ -4120,8 +5252,14 @@
       <c r="E217" s="3">
         <v>0.61199999999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G217" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>43435</v>
       </c>
@@ -4137,8 +5275,14 @@
       <c r="E218" s="3">
         <v>0.61124999999999996</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G218" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>43466</v>
       </c>
@@ -4154,8 +5298,14 @@
       <c r="E219" s="3">
         <v>0.97919</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G219" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>43497</v>
       </c>
@@ -4171,8 +5321,14 @@
       <c r="E220" s="3">
         <v>0.48720999999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G220" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>43525</v>
       </c>
@@ -4188,8 +5344,14 @@
       <c r="E221" s="3">
         <v>0.48780000000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G221" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>43556</v>
       </c>
@@ -4205,8 +5367,14 @@
       <c r="E222" s="3">
         <v>0.24390000000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G222" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>43586</v>
       </c>
@@ -4222,8 +5390,14 @@
       <c r="E223" s="3">
         <v>0.36630000000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G223" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>43617</v>
       </c>
@@ -4239,8 +5413,14 @@
       <c r="E224" s="3">
         <v>0.12180000000000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G224" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>43647</v>
       </c>
@@ -4256,8 +5436,14 @@
       <c r="E225" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G225" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>43678</v>
       </c>
@@ -4273,8 +5459,14 @@
       <c r="E226" s="3">
         <v>0.73260000000000003</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G226" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>43709</v>
       </c>
@@ -4290,8 +5482,14 @@
       <c r="E227" s="3">
         <v>0.9768</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G227" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
         <v>43739</v>
       </c>
@@ -4307,8 +5505,14 @@
       <c r="E228" s="3">
         <v>0.60753000000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G228" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
         <v>43770</v>
       </c>
@@ -4324,8 +5528,14 @@
       <c r="E229" s="3">
         <v>0.85158</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G229" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
         <v>43800</v>
       </c>
@@ -4341,8 +5551,14 @@
       <c r="E230" s="3">
         <v>0.85055000000000003</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G230" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>43831</v>
       </c>
@@ -4358,8 +5574,14 @@
       <c r="E231" s="3">
         <v>0.72726999999999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G231" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
         <v>43862</v>
       </c>
@@ -4375,8 +5597,14 @@
       <c r="E232" s="3">
         <v>0.48485</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G232" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>43891</v>
       </c>
@@ -4392,8 +5620,14 @@
       <c r="E233" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G233" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>43922</v>
       </c>
@@ -4409,8 +5643,14 @@
       <c r="E234" s="3">
         <v>-2.9197099999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G234" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>43952</v>
       </c>
@@ -4426,8 +5666,14 @@
       <c r="E235" s="3">
         <v>-1.9464699999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G235" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
         <v>43983</v>
       </c>
@@ -4443,8 +5689,14 @@
       <c r="E236" s="3">
         <v>-0.97323999999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G236" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
         <v>44013</v>
       </c>
@@ -4460,8 +5712,14 @@
       <c r="E237" s="3">
         <v>-1.09622</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G237" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
         <v>44044</v>
       </c>
@@ -4477,8 +5735,14 @@
       <c r="E238" s="3">
         <v>-1.45455</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G238" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>44075</v>
       </c>
@@ -4494,8 +5758,14 @@
       <c r="E239" s="3">
         <v>-2.1765400000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G239" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>44105</v>
       </c>
@@ -4511,8 +5781,14 @@
       <c r="E240" s="3">
         <v>-1.81159</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G240" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>44136</v>
       </c>
@@ -4528,8 +5804,14 @@
       <c r="E241" s="3">
         <v>-2.2919200000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G241" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>44166</v>
       </c>
@@ -4545,8 +5827,14 @@
       <c r="E242" s="3">
         <v>-2.2891599999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G242" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
         <v>44197</v>
       </c>
@@ -4562,8 +5850,14 @@
       <c r="E243" s="3">
         <v>-2.4067400000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243" s="2">
+        <v>35</v>
+      </c>
+      <c r="G243" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
         <v>44228</v>
       </c>
@@ -4579,8 +5873,14 @@
       <c r="E244" s="3">
         <v>-2.1712899999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G244" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>44256</v>
       </c>
@@ -4596,8 +5896,14 @@
       <c r="E245" s="3">
         <v>-1.3349500000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F245" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="G245" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
         <v>44287</v>
       </c>
@@ -4613,8 +5919,14 @@
       <c r="E246" s="3">
         <v>1.8796999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246" s="2">
+        <v>35</v>
+      </c>
+      <c r="G246" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
         <v>44317</v>
       </c>
@@ -4630,8 +5942,14 @@
       <c r="E247" s="3">
         <v>0.86848999999999998</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F247" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="G247" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
         <v>44348</v>
       </c>
@@ -4647,8 +5965,14 @@
       <c r="E248" s="3">
         <v>0.2457</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F248" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G248" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>44378</v>
       </c>
@@ -4664,8 +5988,14 @@
       <c r="E249" s="3">
         <v>0.73892000000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F249" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G249" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
         <v>44409</v>
       </c>
@@ -4681,8 +6011,14 @@
       <c r="E250" s="3">
         <v>0.49199999999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F250" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G250" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>44440</v>
       </c>
@@ -4698,8 +6034,14 @@
       <c r="E251" s="3">
         <v>0.86526999999999998</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F251" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G251" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
         <v>44470</v>
       </c>
@@ -4715,8 +6057,14 @@
       <c r="E252" s="3">
         <v>0.61500999999999995</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F252" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G252" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>44501</v>
       </c>
@@ -4732,8 +6080,14 @@
       <c r="E253" s="3">
         <v>1.2345699999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F253" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G253" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
         <v>44531</v>
       </c>
@@ -4749,8 +6103,14 @@
       <c r="E254" s="3">
         <v>1.1097399999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F254" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G254" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
         <v>44562</v>
       </c>
@@ -4766,8 +6126,14 @@
       <c r="E255" s="3">
         <v>1.23305</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F255" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G255" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
         <v>44593</v>
       </c>
@@ -4783,8 +6149,14 @@
       <c r="E256" s="3">
         <v>1.3563499999999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F256" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G256" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
         <v>44621</v>
       </c>
@@ -4800,8 +6172,14 @@
       <c r="E257" s="3">
         <v>1.47601</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G257" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
         <v>44652</v>
       </c>
@@ -4817,8 +6195,14 @@
       <c r="E258" s="3">
         <v>1.35301</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G258" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>44682</v>
       </c>
@@ -4834,8 +6218,14 @@
       <c r="E259" s="3">
         <v>1.5990200000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G259" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
         <v>44713</v>
       </c>
@@ -4851,8 +6241,14 @@
       <c r="E260" s="3">
         <v>0.85784000000000005</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G260" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>44743</v>
       </c>
@@ -4868,8 +6264,14 @@
       <c r="E261" s="3">
         <v>0.61124999999999996</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F261" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G261" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
         <v>44774</v>
       </c>
@@ -4885,8 +6287,14 @@
       <c r="E262" s="3">
         <v>1.34639</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F262" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G262" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>44805</v>
       </c>
@@ -4902,8 +6310,14 @@
       <c r="E263" s="3">
         <v>1.22549</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F263" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G263" s="9">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
         <v>44835</v>
       </c>
@@ -4919,8 +6333,14 @@
       <c r="E264" s="3">
         <v>0.97799999999999998</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F264" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G264" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>44866</v>
       </c>
@@ -4936,8 +6356,14 @@
       <c r="E265" s="3">
         <v>0.48780000000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F265" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="G265" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
         <v>44896</v>
       </c>
@@ -4953,8 +6379,14 @@
       <c r="E266" s="3">
         <v>0.73170999999999997</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F266" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G266" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>44927</v>
       </c>
@@ -4970,8 +6402,14 @@
       <c r="E267" s="3">
         <v>0.85262000000000004</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F267" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="G267" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>44958</v>
       </c>
@@ -4987,8 +6425,14 @@
       <c r="E268" s="3">
         <v>0.97323999999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F268" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G268" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>44986</v>
       </c>
@@ -5004,8 +6448,14 @@
       <c r="E269" s="3">
         <v>0.72726999999999997</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F269" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G269" s="9">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>45017</v>
       </c>
@@ -5021,8 +6471,14 @@
       <c r="E270" s="3">
         <v>1.09223</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F270" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G270" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
         <v>45047</v>
       </c>
@@ -5038,8 +6494,14 @@
       <c r="E271" s="3">
         <v>0.96852000000000005</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F271" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G271" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
         <v>45078</v>
       </c>
@@ -5055,8 +6517,14 @@
       <c r="E272" s="3">
         <v>1.33657</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F272" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G272" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>45108</v>
       </c>
@@ -5072,8 +6540,14 @@
       <c r="E273" s="3">
         <v>1.33657</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F273" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G273" s="9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
         <v>45139</v>
       </c>
@@ -5089,8 +6563,14 @@
       <c r="E274" s="3">
         <v>0.84540999999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F274" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G274" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
         <v>45170</v>
       </c>
@@ -5106,8 +6586,14 @@
       <c r="E275" s="3">
         <v>1.0895900000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F275" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G275" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
         <v>45200</v>
       </c>
@@ -5123,8 +6609,14 @@
       <c r="E276" s="3">
         <v>0.96852000000000005</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F276" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G276" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
         <v>45231</v>
       </c>
@@ -5140,8 +6632,14 @@
       <c r="E277" s="3">
         <v>1.2135899999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F277" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G277" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
         <v>45261</v>
       </c>
@@ -5157,8 +6655,14 @@
       <c r="E278" s="3">
         <v>0.72638999999999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F278" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G278" s="9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
         <v>45292</v>
       </c>
@@ -5174,8 +6678,14 @@
       <c r="E279" s="3">
         <v>0.60385999999999995</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F279" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G279" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
         <v>45323</v>
       </c>
@@ -5191,8 +6701,14 @@
       <c r="E280" s="3">
         <v>0.60241</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F280" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G280" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>45352</v>
       </c>
@@ -5208,8 +6724,14 @@
       <c r="E281" s="3">
         <v>0.36101</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F281" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G281" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
         <v>45383</v>
       </c>
@@ -5225,8 +6747,14 @@
       <c r="E282" s="3">
         <v>0.24010000000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F282" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G282" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
         <v>45413</v>
       </c>
@@ -5242,8 +6770,14 @@
       <c r="E283" s="3">
         <v>0.23981</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F283" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G283" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
         <v>45444</v>
       </c>
@@ -5259,8 +6793,14 @@
       <c r="E284" s="3">
         <v>0.35970999999999997</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F284" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G284" s="9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
         <v>45474</v>
       </c>
@@ -5276,8 +6816,14 @@
       <c r="E285" s="3">
         <v>0.59952000000000005</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F285" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G285" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
         <v>45505</v>
       </c>
@@ -5293,8 +6839,14 @@
       <c r="E286" s="3">
         <v>0.47904000000000002</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F286" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G286" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>45536</v>
       </c>
@@ -5310,8 +6862,14 @@
       <c r="E287" s="3">
         <v>0.35927999999999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F287" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G287" s="9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
         <v>45566</v>
       </c>
@@ -5327,8 +6885,14 @@
       <c r="E288" s="3">
         <v>0.11990000000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F288" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G288" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
         <v>45597</v>
       </c>
@@ -5344,8 +6908,14 @@
       <c r="E289" s="3">
         <v>0.11990000000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F289" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G289" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
         <v>45627</v>
       </c>
@@ -5361,8 +6931,14 @@
       <c r="E290" s="3">
         <v>0.24038000000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F290" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G290" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
         <v>45658</v>
       </c>
@@ -5378,8 +6954,14 @@
       <c r="E291" s="3">
         <v>0.24010000000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F291" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G291" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
         <v>45689</v>
       </c>
@@ -5395,8 +6977,14 @@
       <c r="E292" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F292" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G292" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
         <v>45717</v>
       </c>
@@ -5412,8 +7000,14 @@
       <c r="E293" s="3">
         <v>-0.11990000000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F293" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G293" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
         <v>45748</v>
       </c>
@@ -5425,6 +7019,12 @@
       </c>
       <c r="E294" s="3">
         <v>0.11976000000000001</v>
+      </c>
+      <c r="F294" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G294" s="9">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
